--- a/Code/Results/Cases/Case_2_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.741896297739288</v>
+        <v>3.285299006035018</v>
       </c>
       <c r="C2">
-        <v>0.9234638823576518</v>
+        <v>0.3063910664355944</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03020083838924137</v>
+        <v>0.03260438841515523</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008157151040020082</v>
+        <v>0.002593447952531551</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1484345420884026</v>
+        <v>0.1959427902342341</v>
       </c>
       <c r="M2">
-        <v>0.7107491745435652</v>
+        <v>0.5588372630720713</v>
       </c>
       <c r="N2">
-        <v>2.027580975766156</v>
+        <v>2.913804197205835</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.140620856224302</v>
+        <v>3.153995099164376</v>
       </c>
       <c r="C3">
-        <v>0.7910472113754849</v>
+        <v>0.2722907654708138</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02727967660570485</v>
+        <v>0.03169665204378269</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.000827431623600711</v>
+        <v>0.002600312965820207</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1343829440500741</v>
+        <v>0.1937345121683052</v>
       </c>
       <c r="M3">
-        <v>0.6239269145238282</v>
+        <v>0.5406136102851136</v>
       </c>
       <c r="N3">
-        <v>2.01816173420039</v>
+        <v>2.911298592328734</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.781794350600421</v>
+        <v>3.075547013271944</v>
       </c>
       <c r="C4">
-        <v>0.7117538396138343</v>
+        <v>0.2514964955564665</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02552638801165585</v>
+        <v>0.03113065065154075</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008347738068836124</v>
+        <v>0.002604743995309037</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1260473156435751</v>
+        <v>0.1924820619379943</v>
       </c>
       <c r="M4">
-        <v>0.5721542996018982</v>
+        <v>0.5297840588041751</v>
       </c>
       <c r="N4">
-        <v>2.015219835266805</v>
+        <v>2.910435841117931</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.637831070972709</v>
+        <v>3.044120702954274</v>
       </c>
       <c r="C5">
-        <v>0.6798677226472023</v>
+        <v>0.2430574184021168</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02481992074274331</v>
+        <v>0.03089778326186909</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008378065121151588</v>
+        <v>0.002606604169846119</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1227161278388564</v>
+        <v>0.1919976269384023</v>
       </c>
       <c r="M5">
-        <v>0.5513936724484694</v>
+        <v>0.5254608025056626</v>
       </c>
       <c r="N5">
-        <v>2.01467517706152</v>
+        <v>2.910252902129017</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.614053314387888</v>
+        <v>3.038934988787275</v>
       </c>
       <c r="C6">
-        <v>0.674596672598085</v>
+        <v>0.2416581771890947</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02470303897149506</v>
+        <v>0.03085898065418746</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000838312643218927</v>
+        <v>0.002606916347678512</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1221667386382421</v>
+        <v>0.1919187523306221</v>
       </c>
       <c r="M6">
-        <v>0.5479654066779389</v>
+        <v>0.5247483396187533</v>
       </c>
       <c r="N6">
-        <v>2.01462260531558</v>
+        <v>2.910232673643719</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.779844082259558</v>
+        <v>3.075120998721502</v>
       </c>
       <c r="C7">
-        <v>0.7113221833363639</v>
+        <v>0.2513825442081554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02551683053027176</v>
+        <v>0.03112751915422152</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0008348145378620771</v>
+        <v>0.002604768861448339</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1260021340026682</v>
+        <v>0.1924754236932671</v>
       </c>
       <c r="M7">
-        <v>0.5718730107865397</v>
+        <v>0.5297253907592037</v>
       </c>
       <c r="N7">
-        <v>2.015209916101938</v>
+        <v>2.910432692791602</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.532207583571108</v>
+        <v>3.239571617642696</v>
       </c>
       <c r="C8">
-        <v>0.8773387203901279</v>
+        <v>0.2946027020927318</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02918388918446446</v>
+        <v>0.03229316969212981</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.000819726391665384</v>
+        <v>0.002595770327968627</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1435239584155283</v>
+        <v>0.1951598671836905</v>
       </c>
       <c r="M8">
-        <v>0.680462548950203</v>
+        <v>0.5524786827059955</v>
       </c>
       <c r="N8">
-        <v>2.023705019741953</v>
+        <v>2.912799251453777</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.107585014895108</v>
+        <v>3.579527885421612</v>
       </c>
       <c r="C9">
-        <v>1.222970459824921</v>
+        <v>0.3805596185739546</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03680707487848878</v>
+        <v>0.03451240754549723</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007911369490808059</v>
+        <v>0.002579827653824767</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.180604451806623</v>
+        <v>0.2012482548512367</v>
       </c>
       <c r="M9">
-        <v>0.9081493244652137</v>
+        <v>0.5999841097111016</v>
       </c>
       <c r="N9">
-        <v>2.066028140922441</v>
+        <v>2.922860582528685</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.355138205981575</v>
+        <v>3.840292000744</v>
       </c>
       <c r="C10">
-        <v>1.495926567912989</v>
+        <v>0.444540743035077</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04285932946349469</v>
+        <v>0.03610520015231167</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007704515588601256</v>
+        <v>0.002569139650201556</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2101608336249541</v>
+        <v>0.2062295139034234</v>
       </c>
       <c r="M10">
-        <v>1.088592631433144</v>
+        <v>0.6366939879899363</v>
       </c>
       <c r="N10">
-        <v>2.117867156321154</v>
+        <v>2.933641649416131</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.950314263252096</v>
+        <v>3.961387470227521</v>
       </c>
       <c r="C11">
-        <v>1.62612172141354</v>
+        <v>0.4738487071786608</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04576439960411705</v>
+        <v>0.03682226621580398</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007610310140848093</v>
+        <v>0.002564497116735704</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2242883904722532</v>
+        <v>0.2086072741385721</v>
       </c>
       <c r="M11">
-        <v>1.174690836193861</v>
+        <v>0.6537976989548184</v>
       </c>
       <c r="N11">
-        <v>2.147366099492075</v>
+        <v>2.939300769776509</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.180499202716589</v>
+        <v>4.007604699846127</v>
       </c>
       <c r="C12">
-        <v>1.676485831522086</v>
+        <v>0.4849776530816712</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04689200347842082</v>
+        <v>0.03709277244762887</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007574540097918851</v>
+        <v>0.002562770451888009</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2297545150019573</v>
+        <v>0.2095238380302504</v>
       </c>
       <c r="M12">
-        <v>1.207989547695917</v>
+        <v>0.6603333767487101</v>
       </c>
       <c r="N12">
-        <v>2.159533416159974</v>
+        <v>2.941553773715185</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.130696147990648</v>
+        <v>3.997634848558732</v>
       </c>
       <c r="C13">
-        <v>1.665588247171286</v>
+        <v>0.4825794475465841</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04664782610620577</v>
+        <v>0.0370345591802046</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007582249569672491</v>
+        <v>0.002563140928244491</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2285717867130046</v>
+        <v>0.2093257195643474</v>
       </c>
       <c r="M13">
-        <v>1.200785029324734</v>
+        <v>0.6589231710319581</v>
       </c>
       <c r="N13">
-        <v>2.156866007460678</v>
+        <v>2.941063632047502</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.969150108407575</v>
+        <v>3.96518252277923</v>
       </c>
       <c r="C14">
-        <v>1.630242662325884</v>
+        <v>0.4747636690634636</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04585657980893565</v>
+        <v>0.03684454131460235</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007607369772672355</v>
+        <v>0.002564354435668275</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2247356439626174</v>
+        <v>0.2086823560691613</v>
       </c>
       <c r="M14">
-        <v>1.177415651024177</v>
+        <v>0.6543342088218367</v>
       </c>
       <c r="N14">
-        <v>2.148346199332934</v>
+        <v>2.9394839122684</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.870851494591875</v>
+        <v>3.945351713559603</v>
       </c>
       <c r="C15">
-        <v>1.608737245921191</v>
+        <v>0.4699803169339702</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04537569167876931</v>
+        <v>0.03672801703598694</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007622741381271409</v>
+        <v>0.002565101822184169</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2224016432404312</v>
+        <v>0.2082903841883734</v>
       </c>
       <c r="M15">
-        <v>1.163195655791696</v>
+        <v>0.651531026630721</v>
       </c>
       <c r="N15">
-        <v>2.143262182493629</v>
+        <v>2.938530660280094</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.316865818033591</v>
+        <v>3.832428344365553</v>
       </c>
       <c r="C16">
-        <v>1.487555122250797</v>
+        <v>0.4426296051849476</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.042672990625368</v>
+        <v>0.03605819128505949</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007710663395696923</v>
+        <v>0.002569447450221141</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2092527758959903</v>
+        <v>0.2060763779219883</v>
       </c>
       <c r="M16">
-        <v>1.08305626748016</v>
+        <v>0.6355844175087171</v>
       </c>
       <c r="N16">
-        <v>2.116070242273821</v>
+        <v>2.933287126677044</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.98463875713901</v>
+        <v>3.763790635560724</v>
       </c>
       <c r="C17">
-        <v>1.414884781254329</v>
+        <v>0.4259037987062584</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04105754454624844</v>
+        <v>0.03564538690424435</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007764520275585936</v>
+        <v>0.002572169426353806</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2013730659717652</v>
+        <v>0.2047468419851128</v>
       </c>
       <c r="M17">
-        <v>1.034998602503038</v>
+        <v>0.6259057428761352</v>
       </c>
       <c r="N17">
-        <v>2.100999756546173</v>
+        <v>2.930264749979415</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.796096116734873</v>
+        <v>3.724544436460235</v>
       </c>
       <c r="C18">
-        <v>1.373640236479162</v>
+        <v>0.41630253712799</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04014227527692427</v>
+        <v>0.03540724358969882</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007795492950755699</v>
+        <v>0.002573755706710824</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1969038136548846</v>
+        <v>0.2039926421275311</v>
       </c>
       <c r="M18">
-        <v>1.007726663168626</v>
+        <v>0.6203768247513537</v>
       </c>
       <c r="N18">
-        <v>2.092878383822665</v>
+        <v>2.928597310310806</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.732673279071832</v>
+        <v>3.711296097978561</v>
       </c>
       <c r="C19">
-        <v>1.35976525343267</v>
+        <v>0.4130549289790224</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03983461284476952</v>
+        <v>0.03532648911326497</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007805981247307189</v>
+        <v>0.002574296350819686</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1954009099987104</v>
+        <v>0.2037390862252266</v>
       </c>
       <c r="M19">
-        <v>0.9985530785058785</v>
+        <v>0.6185113319949664</v>
       </c>
       <c r="N19">
-        <v>2.090218528544312</v>
+        <v>2.928044884961963</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.019735935576421</v>
+        <v>3.771073145709124</v>
       </c>
       <c r="C20">
-        <v>1.422562080491844</v>
+        <v>0.4276823141044019</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04122803636689376</v>
+        <v>0.0356894036858133</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007758788112944292</v>
+        <v>0.002571877529188945</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2022052380206674</v>
+        <v>0.2048872845732461</v>
       </c>
       <c r="M20">
-        <v>1.040075389851744</v>
+        <v>0.6269321161370698</v>
       </c>
       <c r="N20">
-        <v>2.10254647742542</v>
+        <v>2.930579133249779</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.0164623011309</v>
+        <v>3.974704715879568</v>
       </c>
       <c r="C21">
-        <v>1.640593940549877</v>
+        <v>0.4770585084250456</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04608818978066864</v>
+        <v>0.03690038176720734</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007599994705077122</v>
+        <v>0.002563997149622991</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.225859092867708</v>
+        <v>0.2088708883009502</v>
       </c>
       <c r="M21">
-        <v>1.184259882364927</v>
+        <v>0.6556804943765684</v>
       </c>
       <c r="N21">
-        <v>2.15082031896074</v>
+        <v>2.939944916466089</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.696394608094124</v>
+        <v>4.109896548103279</v>
       </c>
       <c r="C22">
-        <v>1.789401849779892</v>
+        <v>0.5095081176793883</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04942857300070536</v>
+        <v>0.03768583853871554</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007495601835729051</v>
+        <v>0.002559029571852951</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2420073686809729</v>
+        <v>0.2115686255850591</v>
       </c>
       <c r="M22">
-        <v>1.282617296511859</v>
+        <v>0.6748127438659424</v>
       </c>
       <c r="N22">
-        <v>2.188269368374421</v>
+        <v>2.946707969919288</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.330575271482758</v>
+        <v>4.037547511916273</v>
       </c>
       <c r="C23">
-        <v>1.70932738184905</v>
+        <v>0.4921722250734888</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04762852352923019</v>
+        <v>0.03726715731291463</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.000755140541328414</v>
+        <v>0.002561664210312272</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2333187227925322</v>
+        <v>0.2101201416234204</v>
       </c>
       <c r="M23">
-        <v>1.229699441449043</v>
+        <v>0.6645698171748222</v>
       </c>
       <c r="N23">
-        <v>2.167686309703498</v>
+        <v>2.943039164327274</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.003860901809162</v>
+        <v>3.767780055055653</v>
       </c>
       <c r="C24">
-        <v>1.419089522514071</v>
+        <v>0.4268782018462502</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04115091546096927</v>
+        <v>0.03566950624582077</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007761379586799837</v>
+        <v>0.002572009429492317</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2018288246803621</v>
+        <v>0.204823758814328</v>
       </c>
       <c r="M24">
-        <v>1.037779070743717</v>
+        <v>0.6264679823272701</v>
       </c>
       <c r="N24">
-        <v>2.101845524738764</v>
+        <v>2.930436782137207</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.66796152866516</v>
+        <v>3.485654925016263</v>
       </c>
       <c r="C25">
-        <v>1.126684373136186</v>
+        <v>0.3571674913833931</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03468112522613964</v>
+        <v>0.03391887560045959</v>
       </c>
       <c r="F25">
-        <v>1.757113814925418</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007987914967739762</v>
+        <v>0.002583959589928095</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1702202558089283</v>
+        <v>0.199512373534148</v>
       </c>
       <c r="M25">
-        <v>0.8445836636919353</v>
+        <v>0.5868187296525065</v>
       </c>
       <c r="N25">
-        <v>2.051352965487197</v>
+        <v>2.919549755896369</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.285299006035018</v>
+        <v>4.741896297739345</v>
       </c>
       <c r="C2">
-        <v>0.3063910664355944</v>
+        <v>0.923463882357197</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03260438841515523</v>
+        <v>0.03020083838923426</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002593447952531551</v>
+        <v>0.0008157151039269728</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1959427902342341</v>
+        <v>0.1484345420884807</v>
       </c>
       <c r="M2">
-        <v>0.5588372630720713</v>
+        <v>0.7107491745435581</v>
       </c>
       <c r="N2">
-        <v>2.913804197205835</v>
+        <v>2.027580975766185</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.153995099164376</v>
+        <v>4.14062085622453</v>
       </c>
       <c r="C3">
-        <v>0.2722907654708138</v>
+        <v>0.7910472113757407</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03169665204378269</v>
+        <v>0.02727967660569952</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002600312965820207</v>
+        <v>0.0008274316234754043</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1937345121683052</v>
+        <v>0.1343829440499675</v>
       </c>
       <c r="M3">
-        <v>0.5406136102851136</v>
+        <v>0.6239269145238282</v>
       </c>
       <c r="N3">
-        <v>2.911298592328734</v>
+        <v>2.018161734200405</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.075547013271944</v>
+        <v>3.781794350600421</v>
       </c>
       <c r="C4">
-        <v>0.2514964955564665</v>
+        <v>0.7117538396141185</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03113065065154075</v>
+        <v>0.02552638801159546</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002604743995309037</v>
+        <v>0.000834773806820386</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1924820619379943</v>
+        <v>0.1260473156435751</v>
       </c>
       <c r="M4">
-        <v>0.5297840588041751</v>
+        <v>0.5721542996019124</v>
       </c>
       <c r="N4">
-        <v>2.910435841117931</v>
+        <v>2.015219835266805</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.044120702954274</v>
+        <v>3.637831070972766</v>
       </c>
       <c r="C5">
-        <v>0.2430574184021168</v>
+        <v>0.6798677226469749</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03089778326186909</v>
+        <v>0.02481992074282147</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002606604169846119</v>
+        <v>0.0008378065122910165</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1919976269384023</v>
+        <v>0.1227161278387996</v>
       </c>
       <c r="M5">
-        <v>0.5254608025056626</v>
+        <v>0.5513936724484978</v>
       </c>
       <c r="N5">
-        <v>2.910252902129017</v>
+        <v>2.014675177061534</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.038934988787275</v>
+        <v>3.614053314387775</v>
       </c>
       <c r="C6">
-        <v>0.2416581771890947</v>
+        <v>0.674596672597886</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03085898065418746</v>
+        <v>0.02470303897150394</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002606916347678512</v>
+        <v>0.0008383126431625477</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1919187523306221</v>
+        <v>0.1221667386382776</v>
       </c>
       <c r="M6">
-        <v>0.5247483396187533</v>
+        <v>0.5479654066779176</v>
       </c>
       <c r="N6">
-        <v>2.910232673643719</v>
+        <v>2.014622605315537</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.075120998721502</v>
+        <v>3.779844082259615</v>
       </c>
       <c r="C7">
-        <v>0.2513825442081554</v>
+        <v>0.7113221833366197</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03112751915422152</v>
+        <v>0.02551683053031084</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002604768861448339</v>
+        <v>0.000834814537865544</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1924754236932671</v>
+        <v>0.1260021340025972</v>
       </c>
       <c r="M7">
-        <v>0.5297253907592037</v>
+        <v>0.5718730107865255</v>
       </c>
       <c r="N7">
-        <v>2.910432692791602</v>
+        <v>2.015209916101995</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.239571617642696</v>
+        <v>4.532207583571051</v>
       </c>
       <c r="C8">
-        <v>0.2946027020927318</v>
+        <v>0.8773387203901564</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03229316969212981</v>
+        <v>0.02918388918446801</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002595770327968627</v>
+        <v>0.0008197263915988856</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1951598671836905</v>
+        <v>0.1435239584154431</v>
       </c>
       <c r="M8">
-        <v>0.5524786827059955</v>
+        <v>0.6804625489502385</v>
       </c>
       <c r="N8">
-        <v>2.912799251453777</v>
+        <v>2.023705019741982</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.579527885421612</v>
+        <v>6.10758501489488</v>
       </c>
       <c r="C9">
-        <v>0.3805596185739546</v>
+        <v>1.222970459825149</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03451240754549723</v>
+        <v>0.03680707487839285</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002579827653824767</v>
+        <v>0.0007911369490852358</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2012482548512367</v>
+        <v>0.1806044518064169</v>
       </c>
       <c r="M9">
-        <v>0.5999841097111016</v>
+        <v>0.9081493244651853</v>
       </c>
       <c r="N9">
-        <v>2.922860582528685</v>
+        <v>2.066028140922455</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.840292000744</v>
+        <v>7.355138205981632</v>
       </c>
       <c r="C10">
-        <v>0.444540743035077</v>
+        <v>1.495926567912989</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03610520015231167</v>
+        <v>0.04285932946346804</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002569139650201556</v>
+        <v>0.0007704515589430604</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2062295139034234</v>
+        <v>0.2101608336250109</v>
       </c>
       <c r="M10">
-        <v>0.6366939879899363</v>
+        <v>1.088592631433137</v>
       </c>
       <c r="N10">
-        <v>2.933641649416131</v>
+        <v>2.117867156321125</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.961387470227521</v>
+        <v>7.950314263252039</v>
       </c>
       <c r="C11">
-        <v>0.4738487071786608</v>
+        <v>1.626121721412972</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03682226621580398</v>
+        <v>0.04576439960410994</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002564497116735704</v>
+        <v>0.0007610310141361558</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2086072741385721</v>
+        <v>0.2242883904723953</v>
       </c>
       <c r="M11">
-        <v>0.6537976989548184</v>
+        <v>1.174690836193861</v>
       </c>
       <c r="N11">
-        <v>2.939300769776509</v>
+        <v>2.147366099492132</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.007604699846127</v>
+        <v>8.180499202716362</v>
       </c>
       <c r="C12">
-        <v>0.4849776530816712</v>
+        <v>1.676485831522371</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03709277244762887</v>
+        <v>0.04689200347838529</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002562770451888009</v>
+        <v>0.000757454009820598</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2095238380302504</v>
+        <v>0.229754515001801</v>
       </c>
       <c r="M12">
-        <v>0.6603333767487101</v>
+        <v>1.207989547695931</v>
       </c>
       <c r="N12">
-        <v>2.941553773715185</v>
+        <v>2.159533416160002</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.997634848558732</v>
+        <v>8.130696147990363</v>
       </c>
       <c r="C13">
-        <v>0.4825794475465841</v>
+        <v>1.665588247171456</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0370345591802046</v>
+        <v>0.04664782610625196</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002563140928244491</v>
+        <v>0.0007582249568833799</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2093257195643474</v>
+        <v>0.2285717867131467</v>
       </c>
       <c r="M13">
-        <v>0.6589231710319581</v>
+        <v>1.200785029324734</v>
       </c>
       <c r="N13">
-        <v>2.941063632047502</v>
+        <v>2.156866007460678</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.96518252277923</v>
+        <v>7.969150108407518</v>
       </c>
       <c r="C14">
-        <v>0.4747636690634636</v>
+        <v>1.630242662325145</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03684454131460235</v>
+        <v>0.04585657980893032</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002564354435668275</v>
+        <v>0.0007607369772656016</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2086823560691613</v>
+        <v>0.2247356439625889</v>
       </c>
       <c r="M14">
-        <v>0.6543342088218367</v>
+        <v>1.177415651024191</v>
       </c>
       <c r="N14">
-        <v>2.9394839122684</v>
+        <v>2.14834619933302</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.945351713559603</v>
+        <v>7.870851494591932</v>
       </c>
       <c r="C15">
-        <v>0.4699803169339702</v>
+        <v>1.608737245920963</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03672801703598694</v>
+        <v>0.04537569167877109</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002565101822184169</v>
+        <v>0.0007622741383265339</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2082903841883734</v>
+        <v>0.2224016432405449</v>
       </c>
       <c r="M15">
-        <v>0.651531026630721</v>
+        <v>1.163195655791711</v>
       </c>
       <c r="N15">
-        <v>2.938530660280094</v>
+        <v>2.143262182493601</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.832428344365553</v>
+        <v>7.316865818033477</v>
       </c>
       <c r="C16">
-        <v>0.4426296051849476</v>
+        <v>1.487555122250569</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03605819128505949</v>
+        <v>0.04267299062538044</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002569447450221141</v>
+        <v>0.0007710663396484126</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2060763779219883</v>
+        <v>0.2092527758960472</v>
       </c>
       <c r="M16">
-        <v>0.6355844175087171</v>
+        <v>1.083056267480167</v>
       </c>
       <c r="N16">
-        <v>2.933287126677044</v>
+        <v>2.11607024227385</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.763790635560724</v>
+        <v>6.984638757138839</v>
       </c>
       <c r="C17">
-        <v>0.4259037987062584</v>
+        <v>1.414884781254273</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03564538690424435</v>
+        <v>0.04105754454624133</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002572169426353806</v>
+        <v>0.0007764520276366601</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2047468419851128</v>
+        <v>0.2013730659715662</v>
       </c>
       <c r="M17">
-        <v>0.6259057428761352</v>
+        <v>1.034998602503045</v>
       </c>
       <c r="N17">
-        <v>2.930264749979415</v>
+        <v>2.100999756546202</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.724544436460235</v>
+        <v>6.79609611673493</v>
       </c>
       <c r="C18">
-        <v>0.41630253712799</v>
+        <v>1.373640236479446</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03540724358969882</v>
+        <v>0.04014227527692782</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002573755706710824</v>
+        <v>0.0007795492950779501</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2039926421275311</v>
+        <v>0.1969038136548278</v>
       </c>
       <c r="M18">
-        <v>0.6203768247513537</v>
+        <v>1.007726663168626</v>
       </c>
       <c r="N18">
-        <v>2.928597310310806</v>
+        <v>2.092878383822665</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.711296097978561</v>
+        <v>6.732673279071889</v>
       </c>
       <c r="C19">
-        <v>0.4130549289790224</v>
+        <v>1.35976525343267</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03532648911326497</v>
+        <v>0.03983461284478018</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.002574296350819686</v>
+        <v>0.0007805981247362568</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2037390862252266</v>
+        <v>0.1954009099986536</v>
       </c>
       <c r="M19">
-        <v>0.6185113319949664</v>
+        <v>0.9985530785058714</v>
       </c>
       <c r="N19">
-        <v>2.928044884961963</v>
+        <v>2.090218528544341</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.771073145709124</v>
+        <v>7.019735935576477</v>
       </c>
       <c r="C20">
-        <v>0.4276823141044019</v>
+        <v>1.422562080491673</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0356894036858133</v>
+        <v>0.04122803636693106</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002571877529188945</v>
+        <v>0.0007758788113189453</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2048872845732461</v>
+        <v>0.2022052380207668</v>
       </c>
       <c r="M20">
-        <v>0.6269321161370698</v>
+        <v>1.040075389851737</v>
       </c>
       <c r="N20">
-        <v>2.930579133249779</v>
+        <v>2.102546477425449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.974704715879568</v>
+        <v>8.0164623011309</v>
       </c>
       <c r="C21">
-        <v>0.4770585084250456</v>
+        <v>1.640593940549934</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03690038176720734</v>
+        <v>0.04608818978066154</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002563997149622991</v>
+        <v>0.0007599994703049358</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2088708883009502</v>
+        <v>0.2258590928675233</v>
       </c>
       <c r="M21">
-        <v>0.6556804943765684</v>
+        <v>1.184259882364927</v>
       </c>
       <c r="N21">
-        <v>2.939944916466089</v>
+        <v>2.15082031896074</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.109896548103279</v>
+        <v>8.696394608094124</v>
       </c>
       <c r="C22">
-        <v>0.5095081176793883</v>
+        <v>1.789401849780177</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03768583853871554</v>
+        <v>0.04942857300073555</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.002559029571852951</v>
+        <v>0.0007495601834443795</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2115686255850591</v>
+        <v>0.2420073686809445</v>
       </c>
       <c r="M22">
-        <v>0.6748127438659424</v>
+        <v>1.282617296511859</v>
       </c>
       <c r="N22">
-        <v>2.946707969919288</v>
+        <v>2.188269368374421</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.037547511916273</v>
+        <v>8.330575271482644</v>
       </c>
       <c r="C23">
-        <v>0.4921722250734888</v>
+        <v>1.709327381848823</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03726715731291463</v>
+        <v>0.0476285235292746</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002561664210312272</v>
+        <v>0.0007551405414995734</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2101201416234204</v>
+        <v>0.2333187227923332</v>
       </c>
       <c r="M23">
-        <v>0.6645698171748222</v>
+        <v>1.229699441449071</v>
       </c>
       <c r="N23">
-        <v>2.943039164327274</v>
+        <v>2.167686309703527</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.767780055055653</v>
+        <v>7.003860901809048</v>
       </c>
       <c r="C24">
-        <v>0.4268782018462502</v>
+        <v>1.419089522514298</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03566950624582077</v>
+        <v>0.04115091546095329</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002572009429492317</v>
+        <v>0.0007761379587113932</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.204823758814328</v>
+        <v>0.2018288246802769</v>
       </c>
       <c r="M24">
-        <v>0.6264679823272701</v>
+        <v>1.037779070743724</v>
       </c>
       <c r="N24">
-        <v>2.930436782137207</v>
+        <v>2.101845524738764</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.485654925016263</v>
+        <v>5.667961528665217</v>
       </c>
       <c r="C25">
-        <v>0.3571674913833931</v>
+        <v>1.126684373136186</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03391887560045959</v>
+        <v>0.03468112522617517</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.002583959589928095</v>
+        <v>0.0007987914967534974</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.199512373534148</v>
+        <v>0.1702202558088359</v>
       </c>
       <c r="M25">
-        <v>0.5868187296525065</v>
+        <v>0.8445836636919424</v>
       </c>
       <c r="N25">
-        <v>2.919549755896369</v>
+        <v>2.051352965487155</v>
       </c>
       <c r="O25">
         <v>0</v>
